--- a/src/main/resources/19-10.xlsx
+++ b/src/main/resources/19-10.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed Elbialy\IdeaProjects\Importaion Market Providor Products\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928E06F8-9D6F-46EE-B2BC-08745D6089B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6336E8-EB01-44F1-922D-E17A72B4734A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>product_sku</t>
   </si>
@@ -73,22 +73,74 @@
     <t>nnew#10</t>
   </si>
   <si>
-    <t>import_test02545</t>
-  </si>
-  <si>
-    <t>selenium</t>
-  </si>
-  <si>
-    <t>import_test02</t>
-  </si>
-  <si>
-    <t>Importation_testing2154554</t>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1584315843</t>
+  </si>
+  <si>
+    <t>Imporation_Test_15843</t>
+  </si>
+  <si>
+    <t>6951569515</t>
+  </si>
+  <si>
+    <t>Imporation_Test_69515</t>
+  </si>
+  <si>
+    <t>7414474144</t>
+  </si>
+  <si>
+    <t>Imporation_Test_74144</t>
+  </si>
+  <si>
+    <t>1642416424</t>
+  </si>
+  <si>
+    <t>Imporation_Test_16424</t>
+  </si>
+  <si>
+    <t>3671536715</t>
+  </si>
+  <si>
+    <t>Imporation_Test_36715</t>
+  </si>
+  <si>
+    <t>3441034410</t>
+  </si>
+  <si>
+    <t>Imporation_Test_34410</t>
+  </si>
+  <si>
+    <t>9839498394</t>
+  </si>
+  <si>
+    <t>Imporation_Test_98394</t>
+  </si>
+  <si>
+    <t>4856848568</t>
+  </si>
+  <si>
+    <t>Imporation_Test_48568</t>
+  </si>
+  <si>
+    <t>7978479784</t>
+  </si>
+  <si>
+    <t>Imporation_Test_79784</t>
+  </si>
+  <si>
+    <t>7101671016</t>
+  </si>
+  <si>
+    <t>Imporation_Test_71016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,19 +474,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E12" sqref="A2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -457,46 +509,144 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>255488587</v>
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/19-10.xlsx
+++ b/src/main/resources/19-10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed Elbialy\IdeaProjects\Importaion Market Providor Products\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6336E8-EB01-44F1-922D-E17A72B4734A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AD883B-32BC-40D1-B06C-A07044ECB8D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
   <si>
     <t>product_sku</t>
   </si>
@@ -76,64 +76,154 @@
     <t>100</t>
   </si>
   <si>
-    <t>1584315843</t>
-  </si>
-  <si>
-    <t>Imporation_Test_15843</t>
-  </si>
-  <si>
-    <t>6951569515</t>
-  </si>
-  <si>
-    <t>Imporation_Test_69515</t>
-  </si>
-  <si>
-    <t>7414474144</t>
-  </si>
-  <si>
-    <t>Imporation_Test_74144</t>
-  </si>
-  <si>
-    <t>1642416424</t>
-  </si>
-  <si>
-    <t>Imporation_Test_16424</t>
-  </si>
-  <si>
-    <t>3671536715</t>
-  </si>
-  <si>
-    <t>Imporation_Test_36715</t>
-  </si>
-  <si>
-    <t>3441034410</t>
-  </si>
-  <si>
-    <t>Imporation_Test_34410</t>
-  </si>
-  <si>
-    <t>9839498394</t>
-  </si>
-  <si>
-    <t>Imporation_Test_98394</t>
-  </si>
-  <si>
-    <t>4856848568</t>
-  </si>
-  <si>
-    <t>Imporation_Test_48568</t>
-  </si>
-  <si>
-    <t>7978479784</t>
-  </si>
-  <si>
-    <t>Imporation_Test_79784</t>
-  </si>
-  <si>
-    <t>7101671016</t>
-  </si>
-  <si>
-    <t>Imporation_Test_71016</t>
+    <t>8535785357</t>
+  </si>
+  <si>
+    <t>Imporation_Test_85357</t>
+  </si>
+  <si>
+    <t>2497124971</t>
+  </si>
+  <si>
+    <t>Imporation_Test_24971</t>
+  </si>
+  <si>
+    <t>4925349253</t>
+  </si>
+  <si>
+    <t>Imporation_Test_49253</t>
+  </si>
+  <si>
+    <t>1485414854</t>
+  </si>
+  <si>
+    <t>Imporation_Test_14854</t>
+  </si>
+  <si>
+    <t>1728117281</t>
+  </si>
+  <si>
+    <t>Imporation_Test_17281</t>
+  </si>
+  <si>
+    <t>9982699826</t>
+  </si>
+  <si>
+    <t>Imporation_Test_99826</t>
+  </si>
+  <si>
+    <t>3836838368</t>
+  </si>
+  <si>
+    <t>Imporation_Test_38368</t>
+  </si>
+  <si>
+    <t>3289232892</t>
+  </si>
+  <si>
+    <t>Imporation_Test_32892</t>
+  </si>
+  <si>
+    <t>2221222212</t>
+  </si>
+  <si>
+    <t>Imporation_Test_22212</t>
+  </si>
+  <si>
+    <t>9561395613</t>
+  </si>
+  <si>
+    <t>Imporation_Test_95613</t>
+  </si>
+  <si>
+    <t>5024750247</t>
+  </si>
+  <si>
+    <t>Imporation_Test_50247</t>
+  </si>
+  <si>
+    <t>9795897958</t>
+  </si>
+  <si>
+    <t>Imporation_Test_97958</t>
+  </si>
+  <si>
+    <t>4427544275</t>
+  </si>
+  <si>
+    <t>Imporation_Test_44275</t>
+  </si>
+  <si>
+    <t>5670256702</t>
+  </si>
+  <si>
+    <t>Imporation_Test_56702</t>
+  </si>
+  <si>
+    <t>7176071760</t>
+  </si>
+  <si>
+    <t>Imporation_Test_71760</t>
+  </si>
+  <si>
+    <t>3961839618</t>
+  </si>
+  <si>
+    <t>Imporation_Test_39618</t>
+  </si>
+  <si>
+    <t>5573855738</t>
+  </si>
+  <si>
+    <t>Imporation_Test_55738</t>
+  </si>
+  <si>
+    <t>9880098800</t>
+  </si>
+  <si>
+    <t>Imporation_Test_98800</t>
+  </si>
+  <si>
+    <t>8820888208</t>
+  </si>
+  <si>
+    <t>Imporation_Test_88208</t>
+  </si>
+  <si>
+    <t>7142371423</t>
+  </si>
+  <si>
+    <t>Imporation_Test_71423</t>
+  </si>
+  <si>
+    <t>6252962529</t>
+  </si>
+  <si>
+    <t>Imporation_Test_62529</t>
+  </si>
+  <si>
+    <t>5057750577</t>
+  </si>
+  <si>
+    <t>Imporation_Test_50577</t>
+  </si>
+  <si>
+    <t>7119571195</t>
+  </si>
+  <si>
+    <t>Imporation_Test_71195</t>
+  </si>
+  <si>
+    <t>6208462084</t>
+  </si>
+  <si>
+    <t>Imporation_Test_62084</t>
+  </si>
+  <si>
+    <t>2153821538</t>
+  </si>
+  <si>
+    <t>Imporation_Test_21538</t>
   </si>
 </sst>
 </file>
@@ -477,7 +567,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="A2:E12"/>
+      <selection activeCell="F9" sqref="A2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,13 +601,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -525,13 +615,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -539,13 +629,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -553,13 +643,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -567,13 +657,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -581,13 +671,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -595,13 +685,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -609,13 +699,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -623,13 +713,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -637,13 +727,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -653,7 +743,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="68" yWindow="225" count="1">
         <x14:dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Value is not in list." promptTitle="Pick from list" prompt="Please pick a value from the drop-down list." xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>manufactures!$A$1:$A$50</xm:f>
